--- a/student_details_template.xlsx
+++ b/student_details_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Desktop\Code\PYTHON\Web-Scrapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Desktop\MM Project\Jupyter notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3EDF1-248A-41CF-AFB3-A44F035C95C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91016EF1-90A4-4083-9E8D-587C7ABA090C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>Office of Quality Assurance</t>
-  </si>
   <si>
     <t>Student Details</t>
   </si>
@@ -548,12 +545,15 @@
   <si>
     <t>Signature of the Student:</t>
   </si>
+  <si>
+    <t xml:space="preserve">                 Office of Quality Assurance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -597,6 +597,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -887,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -917,6 +924,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -927,19 +974,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,35 +999,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3754,8 +3764,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3769,243 +3779,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="95.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
-    <row r="3" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-    </row>
-    <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="6" spans="1:6" ht="28.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="39" t="s">
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
-    <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31" t="s">
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>19</v>
+      <c r="A16" s="19" t="s">
+        <v>18</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
-        <v>19</v>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>18</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:6" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>20</v>
+      <c r="A20" s="36" t="s">
+        <v>19</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="13" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>23</v>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4018,32 +4028,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D22:E23"/>
     <mergeCell ref="A22:C23"/>
     <mergeCell ref="A18:C18"/>
@@ -4051,6 +4035,32 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D20:E21"/>
     <mergeCell ref="A20:C21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="portrait" r:id="rId1"/>

--- a/student_details_template.xlsx
+++ b/student_details_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Desktop\MM Project\Jupyter notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Desktop\MM Project\Main\Script\mentor_form_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91016EF1-90A4-4083-9E8D-587C7ABA090C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B234781C-CE70-4B1B-A723-927AE4EE20CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,30 +495,6 @@
     <t>Address for Communication:</t>
   </si>
   <si>
-    <r>
-      <t>Department of Computer Science</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>MENTOR - MENTEE LOG BOOK</t>
-    </r>
-  </si>
-  <si>
     <t>Permanent Address:</t>
   </si>
   <si>
@@ -547,6 +523,30 @@
   </si>
   <si>
     <t xml:space="preserve">                 Office of Quality Assurance</t>
+  </si>
+  <si>
+    <r>
+      <t>Department of ___________________________</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MENTOR - MENTEE LOG BOOK</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -927,43 +927,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -974,10 +937,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,6 +971,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3765,7 +3765,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3780,7 +3780,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -3789,83 +3789,83 @@
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="95.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
+        <v>30</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="28.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3874,148 +3874,148 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="27" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>22</v>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="14" t="s">
+        <v>28</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4028,6 +4028,32 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D22:E23"/>
     <mergeCell ref="A22:C23"/>
     <mergeCell ref="A18:C18"/>
@@ -4035,32 +4061,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D20:E21"/>
     <mergeCell ref="A20:C21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
